--- a/消防/05_日报/511工作汇报.xlsx
+++ b/消防/05_日报/511工作汇报.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\每日汇报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\githup\消防\05_日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="6975" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>待跟踪需求点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年05月11日测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,6 +139,10 @@
       <t>。
 4.缺陷处理。---希望本周五可以对1.0的缺陷，做一次处理。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05月11日测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +546,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,7 +558,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
@@ -625,7 +625,7 @@
     </row>
     <row r="10" spans="2:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -634,7 +634,7 @@
     </row>
     <row r="11" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
